--- a/Floorplan_C.xlsx
+++ b/Floorplan_C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/ihuipen_tudelft_nl/Documents/Documenten/1. UNI/3. Industrial Ecology/Year 2/ABM/Visual studio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="11_F25DC773A252ABDACC1048BA719E67D25ADE58E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955CA944-8AC4-4935-AAA2-B59C56F04761}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{2A1021D8-812B-432B-8AF0-6F8521A85DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE1D37F-25E5-46D7-B532-1F1F381CAB52}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,191 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -343,11 +527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="34" width="2.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -458,92 +645,92 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0</v>
       </c>
@@ -551,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>3</v>
@@ -562,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -646,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -655,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>3</v>
@@ -687,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -741,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="AA4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -904,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -928,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1032,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1085,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1106,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1163,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1264,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1332,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1365,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1397,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1469,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1576,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -1683,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -1754,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1840,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1932,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1962,19 +2149,19 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2093,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="AA17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -2131,83 +2318,83 @@
         <v>0</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <v>4</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
       <c r="AE18">
         <v>0</v>
       </c>
@@ -2215,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <v>3</v>
@@ -2244,22 +2431,22 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2310,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2319,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>3</v>
@@ -2430,6 +2617,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>